--- a/BRK - HOLD.xlsx
+++ b/BRK - HOLD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremyjiao/Desktop/GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72DB2666-CF3D-FC4B-A82C-7946AFD3DEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11982EC8-62E9-F749-BFA0-D53515F3CAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15660" xr2:uid="{404CC295-A02E-B74B-99C9-1F5100030D5C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19240" activeTab="1" xr2:uid="{404CC295-A02E-B74B-99C9-1F5100030D5C}"/>
   </bookViews>
   <sheets>
     <sheet name="DCF" sheetId="4" r:id="rId1"/>
@@ -1205,6 +1205,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1215,7 +1216,6 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -2101,8 +2101,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:V178"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" topLeftCell="A150" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K108" sqref="K108:U108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7329,35 +7329,35 @@
         <f>D26</f>
         <v>8.352583668760219E-2</v>
       </c>
-      <c r="L124" s="162">
+      <c r="L124" s="158">
         <f t="shared" ref="L124:S124" si="158">K124-($K$124-$T$124)/($T$119-$K$119)</f>
         <v>8.2414725576491085E-2</v>
       </c>
-      <c r="M124" s="162">
+      <c r="M124" s="158">
         <f t="shared" si="158"/>
         <v>8.1303614465379981E-2</v>
       </c>
-      <c r="N124" s="162">
+      <c r="N124" s="158">
         <f t="shared" si="158"/>
         <v>8.0192503354268876E-2</v>
       </c>
-      <c r="O124" s="162">
+      <c r="O124" s="158">
         <f t="shared" si="158"/>
         <v>7.9081392243157772E-2</v>
       </c>
-      <c r="P124" s="162">
+      <c r="P124" s="158">
         <f t="shared" si="158"/>
         <v>7.7970281132046668E-2</v>
       </c>
-      <c r="Q124" s="162">
+      <c r="Q124" s="158">
         <f t="shared" si="158"/>
         <v>7.6859170020935563E-2</v>
       </c>
-      <c r="R124" s="162">
+      <c r="R124" s="158">
         <f t="shared" si="158"/>
         <v>7.5748058909824459E-2</v>
       </c>
-      <c r="S124" s="162">
+      <c r="S124" s="158">
         <f t="shared" si="158"/>
         <v>7.4636947798713354E-2</v>
       </c>
@@ -7642,36 +7642,36 @@
       <c r="R145"/>
     </row>
     <row r="146" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D146" s="158" t="s">
+      <c r="D146" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="E146" s="158"/>
-      <c r="F146" s="158"/>
-      <c r="G146" s="158"/>
-      <c r="H146" s="158"/>
+      <c r="E146" s="159"/>
+      <c r="F146" s="159"/>
+      <c r="G146" s="159"/>
+      <c r="H146" s="159"/>
       <c r="J146"/>
       <c r="K146"/>
-      <c r="L146" s="159"/>
-      <c r="M146" s="159"/>
-      <c r="N146" s="159"/>
-      <c r="O146" s="159"/>
-      <c r="P146" s="159"/>
+      <c r="L146" s="160"/>
+      <c r="M146" s="160"/>
+      <c r="N146" s="160"/>
+      <c r="O146" s="160"/>
+      <c r="P146" s="160"/>
       <c r="Q146"/>
       <c r="R146"/>
     </row>
     <row r="147" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D147" s="158"/>
-      <c r="E147" s="158"/>
-      <c r="F147" s="158"/>
-      <c r="G147" s="158"/>
-      <c r="H147" s="158"/>
+      <c r="D147" s="159"/>
+      <c r="E147" s="159"/>
+      <c r="F147" s="159"/>
+      <c r="G147" s="159"/>
+      <c r="H147" s="159"/>
       <c r="J147"/>
       <c r="K147"/>
-      <c r="L147" s="159"/>
-      <c r="M147" s="159"/>
-      <c r="N147" s="159"/>
-      <c r="O147" s="159"/>
-      <c r="P147" s="159"/>
+      <c r="L147" s="160"/>
+      <c r="M147" s="160"/>
+      <c r="N147" s="160"/>
+      <c r="O147" s="160"/>
+      <c r="P147" s="160"/>
       <c r="Q147"/>
       <c r="R147"/>
     </row>
@@ -7711,7 +7711,7 @@
       <c r="R148"/>
     </row>
     <row r="149" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B149" s="158" t="s">
+      <c r="B149" s="159" t="s">
         <v>16</v>
       </c>
       <c r="C149" s="63">
@@ -7734,7 +7734,7 @@
       <c r="H149" s="54">
         <v>618.92787024399456</v>
       </c>
-      <c r="J149" s="159"/>
+      <c r="J149" s="160"/>
       <c r="K149"/>
       <c r="L149"/>
       <c r="M149"/>
@@ -7745,7 +7745,7 @@
       <c r="R149"/>
     </row>
     <row r="150" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B150" s="158"/>
+      <c r="B150" s="159"/>
       <c r="C150" s="63">
         <f>C151-H144</f>
         <v>7.8525836687602185E-2</v>
@@ -7765,7 +7765,7 @@
       <c r="H150" s="54">
         <v>502.1991220115442</v>
       </c>
-      <c r="J150" s="159"/>
+      <c r="J150" s="160"/>
       <c r="K150"/>
       <c r="L150"/>
       <c r="M150"/>
@@ -7776,7 +7776,7 @@
       <c r="R150"/>
     </row>
     <row r="151" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B151" s="158"/>
+      <c r="B151" s="159"/>
       <c r="C151" s="63">
         <f>CHOOSE(D22,H22,L22,P22,H26)</f>
         <v>8.352583668760219E-2</v>
@@ -7796,7 +7796,7 @@
       <c r="H151" s="54">
         <v>420.36852169619317</v>
       </c>
-      <c r="J151" s="159"/>
+      <c r="J151" s="160"/>
       <c r="K151"/>
       <c r="L151"/>
       <c r="M151"/>
@@ -7807,7 +7807,7 @@
       <c r="R151"/>
     </row>
     <row r="152" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B152" s="158"/>
+      <c r="B152" s="159"/>
       <c r="C152" s="63">
         <f>C151+H144</f>
         <v>8.8525836687602194E-2</v>
@@ -7827,7 +7827,7 @@
       <c r="H152" s="54">
         <v>359.84588544013684</v>
       </c>
-      <c r="J152" s="159"/>
+      <c r="J152" s="160"/>
       <c r="K152"/>
       <c r="L152"/>
       <c r="M152"/>
@@ -7838,7 +7838,7 @@
       <c r="R152"/>
     </row>
     <row r="153" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B153" s="158"/>
+      <c r="B153" s="159"/>
       <c r="C153" s="63">
         <f>C152+H144</f>
         <v>9.3525836687602198E-2</v>
@@ -7858,7 +7858,7 @@
       <c r="H153" s="54">
         <v>313.28578663216808</v>
       </c>
-      <c r="J153" s="159"/>
+      <c r="J153" s="160"/>
       <c r="K153"/>
       <c r="L153"/>
       <c r="M153"/>
@@ -9427,8 +9427,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:AL126"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="D47" sqref="D47"/>
@@ -17645,13 +17645,13 @@
       </c>
     </row>
     <row r="7" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="160" t="s">
+      <c r="B7" s="161" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="161"/>
-      <c r="D7" s="161"/>
-      <c r="E7" s="161"/>
-      <c r="F7" s="161"/>
+      <c r="C7" s="162"/>
+      <c r="D7" s="162"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="162"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B9" s="44" t="s">
